--- a/stress_testing/连接池性能测试.xlsx
+++ b/stress_testing/连接池性能测试.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="0" yWindow="300" windowWidth="15600" windowHeight="11020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="select性能测试" sheetId="3" r:id="rId1"/>
+    <sheet name="insert性能测试" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>使用JDBC访问数据库</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>使用Druid+ShardingJDBC不分库访问数据库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>33409毫秒(吞吐量299.32req/s)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -93,10 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4098毫秒(吞吐量2440.21req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3904毫秒(吞吐量2561.48req/s)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -121,38 +113,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2230毫秒(吞吐量4484.3req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4072毫秒(吞吐量2455.8req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2057毫秒(吞吐量4861.45req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2667毫秒(吞吐量3749.53req/s)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3805毫秒(吞吐量2628.12req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8127毫秒(吞吐量1230.47req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>75769毫秒(吞吐量131.98req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>31757毫秒(吞吐量314.89req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>31648毫秒(吞吐量315.98req/s)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -197,32 +161,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10006毫秒(吞吐量49.97req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11721毫秒(吞吐量42.66req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：
-1、使用连接池比不使用连接池性能要高，但是并发数较少时优势不明显（提升10%左右），并发数较多时优化明显，有近4倍的性能提升。
-2、使用连接池的话，无论是直接使用原生方式还是使用jdbcTemplate、mybatis，性能都差不多，mybatis性能略少10%左右。
-3、使用sharding-jdbc库，但是不做分库方案在并发量比较大的情况下性能比普通方式高50%-100%。
-4、使用sharding-jdbc库，且做表的分库方案在并发量较小的时候比普通方式性能低50%，但在并发量较高的情况下性能相关不多，只低10%左右。
-5、多线程访问比单性能性能提升明显，10线程比单线程性能提升近6倍，100线程比1线程提升50倍，但线程多到一定程度，线程数对性能提升开始不明显，300线程比100线程只提升10%。
-6、当并发线程数和连接池的最大活跃连接数一致的时候(300)，性能接近达到最大化，此后再增加线程数，性能不会提升，甚至略有降低。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>683毫秒(吞吐量732.06req/s)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>352毫秒(吞吐量1420.45req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2711毫秒(吞吐量184.43req/s)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -231,10 +173,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1526毫秒(吞吐量327.65req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>通过主键查找10000次（10线程）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -243,26 +181,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>781毫秒(吞吐量12804.1req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>758毫秒(吞吐量13192.61req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1314毫秒(吞吐量7610.35req/s)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1494毫秒(吞吐量6693.44req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10034毫秒(吞吐量996.61req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>通过主键查找10000次（100线程）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -283,14 +205,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1803毫秒(吞吐量5546.31req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11147毫秒(吞吐量897.1req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>通过主键查找500次（1线程）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -299,59 +213,95 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1165毫秒(吞吐量0.86req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1178毫秒(吞吐量0.85req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1181毫秒(吞吐量0.85req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1249毫秒(吞吐量0.8req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1546毫秒(吞吐量0.65req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1257毫秒(吞吐量0.8req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12370毫秒(吞吐量8.08req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11940毫秒(吞吐量8.38req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11952毫秒(吞吐量8.37req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12909毫秒(吞吐量7.75req/s)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>136658毫秒(吞吐量0.73req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>通过非主键查找100次（10线程）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>121426毫秒(吞吐量0.82req/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：Druid的设置为最大300个连接，空闲最小100个连接。</t>
+    <t>使用Druid+mycat分库访问数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8339毫秒(吞吐量1199.18req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11508毫秒(吞吐量43.45req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>74726毫秒(吞吐量133.82req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4919毫秒(吞吐量2032.93req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4796毫秒(吞吐量2085.07req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Druid+mycat分库访问数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11278毫秒(吞吐量44.33req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72559毫秒(吞吐量137.82req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3892毫秒(吞吐量2569.37req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3967毫秒(吞吐量2520.8req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2538毫秒(吞吐量3940.11req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2043毫秒(吞吐量4894.76req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101毫秒(吞吐量454.13req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15263毫秒(吞吐量6.55req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1844毫秒(吞吐量5.42req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14797毫秒(吞吐量6.76req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1466毫秒(吞吐量0.68req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1835毫秒(吞吐量0.54req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014毫秒(吞吐量0.5req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1941毫秒(吞吐量0.52req/s)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -361,12 +311,82 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">总结：
-1、根据主键查找的用例，使用连接池比不使用连接池查询性能明显提升，提升的性能从7倍（500次1线程）到15倍（10000次10线程）。
-2、非根据主键查找的用例，使不使用连接池性能相关不大。
-3、根据主键查找的用例，10个线程的并发查询性能可以达到最大化，100个线程并发的查询发而比10个线程并慢了近20%-30%。非键查找的用例情况也类似。
-4、使用sharding jdbc的用例，多线程并不能提升查询效率，从结果来看多个线程是串行的方式在进行。且无论单线程还是多线程性能都比普通方式慢非常多。
+    <t>注：Druid的设置为最大300个连接，空闲最小100个连接。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8708毫秒(吞吐量11.48req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>904毫秒(吞吐量553.1req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2190毫秒(吞吐量4566.21req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3807毫秒(吞吐量2626.74req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1065毫秒(吞吐量0.94req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8769毫秒(吞吐量11.4req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>974毫秒(吞吐量1.03req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>614毫秒(吞吐量814.33req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1408毫秒(吞吐量7102.27req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1365毫秒(吞吐量7326.01req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7916毫秒(吞吐量1263.26req/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：
+1、使用连接池比不使用连接池性能要高，但是并发数较少时优势不明显（提升10%左右），并发数较多时优势明显，几倍的性能提升。
+2、使用连接池的话，无论是直接使用原生方式还是使用jdbcTemplate、mybatis，性能都差不多，mybatis性能略少10%左右。
+3、使用sharding-jdbc并采用分库方案，在并发量较小的时候插入性能比普通方式性能低50%，但在并发量较高的情况下性能相差不多。
+4、多线程插入比单线程插入性能提升明显，10线程比单线程性能提升数倍，100线程比1线程提升数十倍，但线程多到一定程度，线程数对性能提升开始不明显，300线程比100线程只提升10%。
+5、当并发线程数和连接池的最大活跃连接数一致的时候(300)，性能接近达到最大化，此后再增加线程数，性能不会提升，甚至略有降低。
+6、使用mycat分库的方案插入性能与sharding jdbc插入性能相近。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>总结：
+1、根据主键查找的用例，使用连接池比不使用连接池查询性能明显提升，达到数倍之多。
+2、非根据主键查找的用例，使用或不使用连接池性能相关不大。
+3、根据主键查找的用例，10个线程的并发查询性能可以达到最大化，100个线程并发的查询发而比10个线程并慢了近20%-30%。非主键查找的用例情况也类似。
+4、根据主键查找，使用mycat分库方案的查询性能比普通方式慢一些。
+5、非通过主键查找，使用mycat的查询性能比普通方式提高了一倍，测试结果与预期相一致。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +420,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,19 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF1515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -455,123 +463,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,20 +472,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -603,83 +491,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1036,7 +861,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B9" sqref="B9:F13"/>
@@ -1054,187 +879,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="32" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F6" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
+      <c r="B9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1243,6 +1068,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1250,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:G9"/>
+    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1266,242 +1092,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
+      <c r="C2" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>18</v>
+      <c r="C6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>28</v>
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="C9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
